--- a/RRO_hist.xlsx
+++ b/RRO_hist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleach\Google Drive\Solar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleach\Documents\data_projects\solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2203BA-DF4B-426B-BE5B-08C06AAD231E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1579604-357C-4932-8A4A-6CCF071DF84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecordExport (7)" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="36">
   <si>
     <t>Company Name</t>
   </si>
@@ -100,7 +104,43 @@
     <t>My_price</t>
   </si>
   <si>
-    <t>RRO_price</t>
+    <t>0.16406</t>
+  </si>
+  <si>
+    <t>0.15972</t>
+  </si>
+  <si>
+    <t>0.10732</t>
+  </si>
+  <si>
+    <t>0.10825</t>
+  </si>
+  <si>
+    <t>0.10722</t>
+  </si>
+  <si>
+    <t>0.12066</t>
+  </si>
+  <si>
+    <t>0.15093</t>
+  </si>
+  <si>
+    <t>0.17345</t>
+  </si>
+  <si>
+    <t>0.19501</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>0.13779</t>
+  </si>
+  <si>
+    <t>0.24208</t>
+  </si>
+  <si>
+    <t>RRO</t>
   </si>
 </sst>
 </file>
@@ -915,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -947,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -2712,6 +2752,383 @@
       </c>
       <c r="I59">
         <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44531</v>
+      </c>
+      <c r="E60" s="1">
+        <v>44561</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44562</v>
+      </c>
+      <c r="E61" s="1">
+        <v>44592</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44593</v>
+      </c>
+      <c r="E62" s="1">
+        <v>44620</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44621</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44651</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44652</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44681</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44682</v>
+      </c>
+      <c r="E65" s="1">
+        <v>44712</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44713</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44742</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44743</v>
+      </c>
+      <c r="E67" s="1">
+        <v>44773</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44774</v>
+      </c>
+      <c r="E68" s="1">
+        <v>44804</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44805</v>
+      </c>
+      <c r="E69" s="1">
+        <v>44834</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>30</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44835</v>
+      </c>
+      <c r="E70" s="1">
+        <v>44865</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44866</v>
+      </c>
+      <c r="E71" s="1">
+        <v>44895</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44896</v>
+      </c>
+      <c r="E72" s="1">
+        <v>44926</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72">
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/RRO_hist.xlsx
+++ b/RRO_hist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleach\Documents\data_projects\solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1579604-357C-4932-8A4A-6CCF071DF84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64739BA7-D20C-4F48-ACBD-83D45D6280F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="RecordExport (7)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="36">
   <si>
     <t>Company Name</t>
   </si>
@@ -628,11 +615,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -955,19 +947,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="5" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.3046875" customWidth="1"/>
+    <col min="4" max="5" width="18.3046875" customWidth="1"/>
+    <col min="6" max="6" width="13.07421875" customWidth="1"/>
+    <col min="7" max="7" width="13.07421875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13.07421875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +981,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="H1" t="s">
@@ -996,7 +991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1015,19 +1010,19 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="4" t="str">
         <f>"0.0332"</f>
         <v>0.0332</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I15" si="0">G2</f>
         <v>0.0332</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1046,19 +1041,19 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="4" t="str">
         <f>"0.03032"</f>
         <v>0.03032</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03032</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1077,19 +1072,19 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="4" t="str">
         <f>"0.02782"</f>
         <v>0.02782</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.02782</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1108,19 +1103,19 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="4" t="str">
         <f>"0.02823"</f>
         <v>0.02823</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.02823</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1139,19 +1134,19 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="4" t="str">
         <f>"0.03469"</f>
         <v>0.03469</v>
       </c>
       <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03469</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1170,19 +1165,19 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="4" t="str">
         <f>"0.03715"</f>
         <v>0.03715</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="3" t="str">
+      <c r="I7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03715</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1201,19 +1196,19 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="4" t="str">
         <f>"0.03365"</f>
         <v>0.03365</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3" t="str">
+      <c r="I8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03365</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1232,19 +1227,19 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="4" t="str">
         <f>"0.03444"</f>
         <v>0.03444</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03444</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1263,19 +1258,19 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="4" t="str">
         <f>"0.03333"</f>
         <v>0.03333</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3" t="str">
+      <c r="I10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1294,19 +1289,19 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="4" t="str">
         <f>"0.03774"</f>
         <v>0.03774</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="3" t="str">
+      <c r="I11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.03774</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1325,19 +1320,19 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="4" t="str">
         <f>"0.04772"</f>
         <v>0.04772</v>
       </c>
       <c r="H12" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3" t="str">
+      <c r="I12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.04772</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1356,19 +1351,19 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="4" t="str">
         <f>"0.04781"</f>
         <v>0.04781</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3" t="str">
+      <c r="I13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.04781</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1387,19 +1382,19 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="4" t="str">
         <f>"0.04565"</f>
         <v>0.04565</v>
       </c>
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="3" t="str">
+      <c r="I14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.04565</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1418,19 +1413,19 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="4" t="str">
         <f>"0.06800"</f>
         <v>0.06800</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="3" t="str">
+      <c r="I15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>0.06800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1449,19 +1444,19 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="4" t="str">
         <f>"0.05379"</f>
         <v>0.05379</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="3" t="str">
+      <c r="I16" s="2" t="str">
         <f>G16</f>
         <v>0.05379</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1475,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" s="3" t="str">
         <f>"0.05928"</f>
         <v>0.05928</v>
       </c>
@@ -1491,7 +1486,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1505,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" s="3" t="str">
         <f>"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1540,7 +1535,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" s="3" t="str">
         <f>"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1565,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" s="3" t="str">
         <f>"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1581,7 +1576,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1600,7 +1595,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" s="3" t="str">
         <f>"0.06577"</f>
         <v>0.06577</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>0.06538</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +1626,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" s="3" t="str">
         <f>"0.06222"</f>
         <v>0.06222</v>
       </c>
@@ -1643,7 +1638,7 @@
         <v>0.0556</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1657,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" s="3" t="str">
         <f>"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1674,7 +1669,7 @@
         <v>0.04531</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1693,7 +1688,7 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" s="3" t="str">
         <f>"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1704,7 +1699,7 @@
         <v>4.5289999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1723,7 +1718,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" s="3" t="str">
         <f>"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1735,7 +1730,7 @@
         <v>0.04531</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1749,7 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" s="3" t="str">
         <f>"0.05991"</f>
         <v>0.05991</v>
       </c>
@@ -1765,7 +1760,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1779,7 @@
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" s="3" t="str">
         <f t="shared" ref="G27:G35" si="1">"0.068"</f>
         <v>0.068</v>
       </c>
@@ -1795,7 +1790,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1809,7 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -1825,7 +1820,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1839,7 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -1855,7 +1850,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1874,7 +1869,7 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -1885,7 +1880,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1899,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -1915,7 +1910,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1934,7 +1929,7 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -1945,7 +1940,7 @@
         <v>6.8339999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1959,7 @@
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -1975,7 +1970,7 @@
         <v>4.5629999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +1989,7 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -2005,7 +2000,7 @@
         <v>6.4259999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2019,7 @@
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" s="3" t="str">
         <f t="shared" si="1"/>
         <v>0.068</v>
       </c>
@@ -2035,7 +2030,7 @@
         <v>6.4810000000000006E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2049,7 @@
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" s="3" t="str">
         <f>"0.08069"</f>
         <v>0.08069</v>
       </c>
@@ -2065,7 +2060,7 @@
         <v>5.2729999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2079,7 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" s="3" t="str">
         <f>"0.08449"</f>
         <v>0.08449</v>
       </c>
@@ -2095,7 +2090,7 @@
         <v>0.12348000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2114,7 +2109,7 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" s="3" t="str">
         <f>"0.08722"</f>
         <v>0.08722</v>
       </c>
@@ -2125,7 +2120,7 @@
         <v>0.12953000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2144,7 +2139,7 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" s="3" t="str">
         <f>"0.07104"</f>
         <v>0.07104</v>
       </c>
@@ -2155,7 +2150,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2174,7 +2169,7 @@
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" s="3" t="str">
         <f>"0.05753"</f>
         <v>0.05753</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2199,7 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" s="3" t="str">
         <f>"0.05465"</f>
         <v>0.05465</v>
       </c>
@@ -2215,7 +2210,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2229,7 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" s="3" t="str">
         <f>"0.05501"</f>
         <v>0.05501</v>
       </c>
@@ -2245,7 +2240,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2264,7 +2259,7 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" s="3" t="str">
         <f>"0.06841"</f>
         <v>0.06841</v>
       </c>
@@ -2275,7 +2270,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +2289,7 @@
       <c r="F44">
         <v>0</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" s="3" t="str">
         <f>"0.06696"</f>
         <v>0.06696</v>
       </c>
@@ -2305,7 +2300,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2319,7 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" s="3" t="str">
         <f>"0.07684"</f>
         <v>0.07684</v>
       </c>
@@ -2335,7 +2330,7 @@
         <v>3.8179999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2349,7 @@
       <c r="F46">
         <v>0</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" s="3" t="str">
         <f>"0.06548"</f>
         <v>0.06548</v>
       </c>
@@ -2365,7 +2360,7 @@
         <v>3.5090000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2384,7 +2379,7 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" s="3" t="str">
         <f>"0.06142"</f>
         <v>0.06142</v>
       </c>
@@ -2395,7 +2390,7 @@
         <v>4.197E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +2409,7 @@
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" s="3" t="str">
         <f>"0.06801"</f>
         <v>0.06801</v>
       </c>
@@ -2425,7 +2420,7 @@
         <v>4.197E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2444,7 +2439,7 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" s="3" t="str">
         <f>"0.08117"</f>
         <v>0.08117</v>
       </c>
@@ -2455,7 +2450,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2474,7 +2469,7 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" s="3" t="str">
         <f>"0.08955"</f>
         <v>0.08955</v>
       </c>
@@ -2485,7 +2480,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2504,7 +2499,7 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" s="3" t="str">
         <f>"0.07479"</f>
         <v>0.07479</v>
       </c>
@@ -2515,7 +2510,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +2529,7 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" s="3" t="str">
         <f>"0.0907"</f>
         <v>0.0907</v>
       </c>
@@ -2545,7 +2540,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2559,7 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" s="3" t="str">
         <f>"0.07633"</f>
         <v>0.07633</v>
       </c>
@@ -2575,7 +2570,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2594,7 +2589,7 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" s="3" t="str">
         <f>"0.07004"</f>
         <v>0.07004</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2624,7 +2619,7 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55" s="3" t="str">
         <f>"0.10582"</f>
         <v>0.10582</v>
       </c>
@@ -2635,7 +2630,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2654,7 +2649,7 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" t="str">
+      <c r="G56" s="3" t="str">
         <f>"0.12288"</f>
         <v>0.12288</v>
       </c>
@@ -2665,7 +2660,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2684,7 +2679,7 @@
       <c r="F57">
         <v>0</v>
       </c>
-      <c r="G57" t="str">
+      <c r="G57" s="3" t="str">
         <f>"0.10608"</f>
         <v>0.10608</v>
       </c>
@@ -2695,7 +2690,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2714,7 +2709,7 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G58" s="3" t="str">
         <f>"0.1073"</f>
         <v>0.1073</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2744,7 +2739,7 @@
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>0.1086</v>
       </c>
       <c r="H59" t="s">
@@ -2754,7 +2749,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2773,7 +2768,7 @@
       <c r="F60">
         <v>0</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H60" t="s">
@@ -2783,7 +2778,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2802,7 +2797,7 @@
       <c r="F61">
         <v>0</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H61" t="s">
@@ -2812,7 +2807,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2826,7 @@
       <c r="F62">
         <v>0</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H62" t="s">
@@ -2841,7 +2836,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2860,7 +2855,7 @@
       <c r="F63">
         <v>0</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="3" t="s">
         <v>25</v>
       </c>
       <c r="H63" t="s">
@@ -2870,7 +2865,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2889,7 +2884,7 @@
       <c r="F64">
         <v>0</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H64" t="s">
@@ -2899,7 +2894,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2918,7 +2913,7 @@
       <c r="F65">
         <v>0</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="3" t="s">
         <v>27</v>
       </c>
       <c r="H65" t="s">
@@ -2928,7 +2923,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2947,7 +2942,7 @@
       <c r="F66">
         <v>0</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H66" t="s">
@@ -2957,7 +2952,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2976,7 +2971,7 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="3" t="s">
         <v>28</v>
       </c>
       <c r="H67" t="s">
@@ -2986,7 +2981,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3000,7 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H68" t="s">
@@ -3015,7 +3010,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3034,7 +3029,7 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H69" t="s">
@@ -3044,7 +3039,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3063,7 +3058,7 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H70" t="s">
@@ -3073,7 +3068,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3092,7 +3087,7 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H71" t="s">
@@ -3102,7 +3097,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3121,13 +3116,72 @@
       <c r="F72">
         <v>0</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="3" t="s">
         <v>34</v>
       </c>
       <c r="H72" t="s">
         <v>9</v>
       </c>
       <c r="I72">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44927</v>
+      </c>
+      <c r="E73" s="1">
+        <v>44957</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <f>0.135</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44958</v>
+      </c>
+      <c r="E74" s="1">
+        <v>44985</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74">
         <v>8.4900000000000003E-2</v>
       </c>
     </row>

--- a/RRO_hist.xlsx
+++ b/RRO_hist.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleach\Documents\data_projects\solar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64739BA7-D20C-4F48-ACBD-83D45D6280F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="33120" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="RecordExport (7)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="37">
   <si>
     <t>Company Name</t>
   </si>
@@ -128,12 +127,15 @@
   </si>
   <si>
     <t>RRO</t>
+  </si>
+  <si>
+    <t>0.2802</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -615,7 +617,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -623,6 +625,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -946,23 +951,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78:G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="44.3046875" customWidth="1"/>
-    <col min="4" max="5" width="18.3046875" customWidth="1"/>
-    <col min="6" max="6" width="13.07421875" customWidth="1"/>
-    <col min="7" max="7" width="13.07421875" style="3" customWidth="1"/>
-    <col min="8" max="9" width="13.07421875" customWidth="1"/>
+    <col min="3" max="3" width="44.26953125" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1027,7 @@
         <v>0.0332</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>0.03032</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>0.02782</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>0.02823</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1146,7 +1151,7 @@
         <v>0.03469</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1182,7 @@
         <v>0.03715</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1213,7 @@
         <v>0.03365</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>0.03444</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>0.03333</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>0.03774</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>0.04772</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1363,7 +1368,7 @@
         <v>0.04781</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>0.04565</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>0.06800</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1461,7 @@
         <v>0.05379</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1581,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>0.06538</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>0.0556</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>0.04531</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1699,7 +1704,7 @@
         <v>4.5289999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>0.04531</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1760,7 +1765,7 @@
         <v>9.8599999999999993E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1885,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1910,7 +1915,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1945,7 @@
         <v>6.8339999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>4.5629999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2000,7 +2005,7 @@
         <v>6.4259999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>6.4810000000000006E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>5.2729999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>0.12348000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2125,7 @@
         <v>0.12953000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2185,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2210,7 +2215,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2270,7 +2275,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2330,7 +2335,7 @@
         <v>3.8179999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2365,7 @@
         <v>3.5090000000000003E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>4.197E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2425,7 @@
         <v>4.197E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2485,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2635,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2720,7 +2725,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2783,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2836,7 +2841,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3126,7 +3131,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3156,7 +3161,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3185,8 +3190,182 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44986</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45016</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H75" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="1">
+        <v>45017</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45046</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.17734</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1">
+        <v>45047</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45077</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0.16829</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="1">
+        <v>45078</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45107</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0.18956000000000001</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1">
+        <v>45108</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45138</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="1">
+        <v>45139</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45169</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0.32540000000000002</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
+  <sortState ref="A2:H29">
     <sortCondition ref="B2:B29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RRO_hist.xlsx
+++ b/RRO_hist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="38">
   <si>
     <t>Company Name</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>0.2802</t>
+  </si>
+  <si>
+    <t>Februaryr Regulated Rate Option - City of Edmonton</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +276,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -617,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -629,6 +638,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -952,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G78" sqref="G78:G80"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2899,7 +2926,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2928,7 +2955,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +2984,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2986,7 +3013,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3015,7 +3042,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3044,7 +3071,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3073,7 +3100,7 @@
         <v>0.25850000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3102,7 +3129,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3131,7 +3158,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3188,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3190,7 +3217,7 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3246,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3247,8 +3274,12 @@
       <c r="I76">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L76" s="6"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="8"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3276,8 +3307,12 @@
       <c r="I77">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L77" s="9"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3305,8 +3340,12 @@
       <c r="I78">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L78" s="10"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3314,7 +3353,7 @@
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="1">
         <v>45108</v>
@@ -3334,8 +3373,12 @@
       <c r="I79">
         <v>0.28499999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L79" s="9"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3343,7 +3386,7 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D80" s="1">
         <v>45139</v>
@@ -3355,13 +3398,240 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.32540000000000002</v>
+        <f>0.2985+0.02694</f>
+        <v>0.32544000000000001</v>
       </c>
       <c r="H80" t="s">
         <v>9</v>
       </c>
       <c r="I80">
         <v>0.28499999999999998</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1">
+        <v>45170</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45199</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>0.25007+0.02752</f>
+        <v>0.27759</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="L81" s="9"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="1">
+        <v>45200</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45230</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>0.17131+0.0256</f>
+        <v>0.19691</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="L82" s="9"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="11"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="1">
+        <v>45231</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45260</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f>0.16942+0.02623</f>
+        <v>0.19564999999999999</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="L83" s="9"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1">
+        <v>45261</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45291</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>0.18419+0.02444</f>
+        <v>0.20862999999999998</v>
+      </c>
+      <c r="H84" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="1">
+        <v>45292</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45322</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <f>0.1701+0.02541</f>
+        <v>0.19550999999999999</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="1">
+        <v>45323</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <f>0.1532+0.02995</f>
+        <v>0.18315000000000001</v>
+      </c>
+      <c r="H86" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="1">
+        <v>45352</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45382</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <f>0.09951+0.03224</f>
+        <v>0.13175000000000001</v>
+      </c>
+      <c r="H87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87">
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
   </sheetData>

--- a/RRO_hist.xlsx
+++ b/RRO_hist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="40">
   <si>
     <t>Company Name</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Februaryr Regulated Rate Option - City of Edmonton</t>
+  </si>
+  <si>
+    <t>January Rate of Last Resort - City of Edmonton</t>
+  </si>
+  <si>
+    <t>February Rate of Last Resort - City of Edmonton</t>
   </si>
 </sst>
 </file>
@@ -979,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3634,9 +3640,328 @@
         <v>8.4900000000000003E-2</v>
       </c>
     </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1">
+        <v>45383</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45412</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.14692</v>
+      </c>
+      <c r="H88" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88">
+        <v>8.4900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45413</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45443</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.10845</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45444</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45473</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="H90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45474</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45504</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.12076000000000001</v>
+      </c>
+      <c r="H91" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45505</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45535</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.13508999999999999</v>
+      </c>
+      <c r="H92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45536</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45565</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.11698</v>
+      </c>
+      <c r="H93" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45566</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45596</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.10829</v>
+      </c>
+      <c r="H94" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45597</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45626</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.10508000000000001</v>
+      </c>
+      <c r="H95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45627</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45657</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.12003999999999999</v>
+      </c>
+      <c r="H96" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45658</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45688</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.1201</v>
+      </c>
+      <c r="H97" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45689</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45716</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.1201</v>
+      </c>
+      <c r="H98" t="s">
+        <v>9</v>
+      </c>
+      <c r="I98">
+        <v>9.7900000000000001E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:H29">
-    <sortCondition ref="B2:B29"/>
+  <sortState ref="A88:H101">
+    <sortCondition ref="D88:D101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
